--- a/biology/Zoologie/Hippoglossoides/Hippoglossoides.xlsx
+++ b/biology/Zoologie/Hippoglossoides/Hippoglossoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippoglossoides est un genre de poissons de la famille des Pleuronectidae.
 Comme tous les poissons de cette famille, les poissons du genre Hippoglossoides possèdent un corps aplati asymétrique et leurs yeux sont sur un même côté du corps.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (13 févr. 2016)[1] et World Register of Marine Species                               (13 févr. 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (13 févr. 2016) et World Register of Marine Species                               (13 févr. 2016) :
 Hippoglossoides dubius Schmidt, 1904
 Hippoglossoides elassodon Jordan et Gilbert, 1880
 Hippoglossoides platessoides (Fabricius, 1780) - plie canadienne, flétan nain
